--- a/Recycling/Met_rec/metrec_Max_full_Min.xlsx
+++ b/Recycling/Met_rec/metrec_Max_full_Min.xlsx
@@ -128,7 +128,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -2445,7 +2445,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>190776.8297763911</v>
+        <v>190776.8297763912</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3039,7 +3039,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>470405.5653736836</v>
+        <v>470405.5653736837</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3963,7 +3963,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>3997303.306903192</v>
+        <v>3997303.306903191</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4227,7 +4227,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>4132319.295497394</v>
+        <v>4132319.295497395</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5349,7 +5349,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>1758678.497762512</v>
+        <v>1758678.497762511</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5415,7 +5415,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>2072999.228797847</v>
+        <v>2072999.228797846</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6603,7 +6603,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>2795444.912764121</v>
+        <v>2795444.91276412</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Recycling/Met_rec/metrec_Max_full_Min.xlsx
+++ b/Recycling/Met_rec/metrec_Max_full_Min.xlsx
@@ -832,7 +832,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>1.197674203973921</v>
+        <v>1.19767420397392</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>0.7268310269207774</v>
+        <v>0.7268310269207773</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2012,7 +2012,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>14.83058301802083</v>
+        <v>14.83058301802084</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2624,7 +2624,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>69.26063535955844</v>
+        <v>69.26063535955842</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2828,7 +2828,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>118.2539843453026</v>
+        <v>118.2539843453025</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2872,7 +2872,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>52.94916154698676</v>
+        <v>52.94916154698675</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3848,7 +3848,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>713.2680828980652</v>
+        <v>713.2680828980654</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4008,7 +4008,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>97.85057598721551</v>
+        <v>97.85057598721552</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4620,7 +4620,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>409.7908363829517</v>
+        <v>409.7908363829518</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5028,7 +5028,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>941.3497139519058</v>
+        <v>941.3497139519059</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5320,7 +5320,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>3932.048902119253</v>
+        <v>3932.048902119254</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5684,7 +5684,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>24201.66676039555</v>
+        <v>24201.66676039554</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6792,7 +6792,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>29637.79025104463</v>
+        <v>29637.79025104462</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -9108,7 +9108,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>511750.063978361</v>
+        <v>511750.0639783612</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -9764,7 +9764,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>478576.7583176086</v>
+        <v>478576.7583176085</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -10464,7 +10464,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>395232.037350678</v>
+        <v>395232.0373506779</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -10580,7 +10580,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>664325.7872544434</v>
+        <v>664325.7872544433</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -10784,7 +10784,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>802403.690147828</v>
+        <v>802403.6901478278</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -10944,7 +10944,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>2045067.169759723</v>
+        <v>2045067.169759722</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -10988,7 +10988,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>996415.9049228926</v>
+        <v>996415.9049228928</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -11236,7 +11236,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>2571602.79498183</v>
+        <v>2571602.794981831</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -11760,7 +11760,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>3912090.028386059</v>
+        <v>3912090.02838606</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -11804,7 +11804,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>2386271.39735099</v>
+        <v>2386271.397350989</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -12372,7 +12372,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>4526826.617248259</v>
+        <v>4526826.61724826</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -12868,7 +12868,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>6145664.747958673</v>
+        <v>6145664.747958672</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -13436,7 +13436,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>3241466.525563063</v>
+        <v>3241466.525563062</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -14092,7 +14092,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>8343852.229430193</v>
+        <v>8343852.229430195</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -14208,7 +14208,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>4891811.828195069</v>
+        <v>4891811.82819507</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -14616,7 +14616,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>4982641.536379147</v>
+        <v>4982641.536379146</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -15724,7 +15724,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>9714653.811389904</v>
+        <v>9714653.811389903</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -16176,7 +16176,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>1644229.610695671</v>
+        <v>1644229.610695672</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -16992,7 +16992,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>1400097.709491487</v>
+        <v>1400097.709491488</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -17560,7 +17560,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>9232697.375867324</v>
+        <v>9232697.375867326</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -18172,7 +18172,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>9492291.374229062</v>
+        <v>9492291.37422906</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -18580,7 +18580,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>9960388.113035494</v>
+        <v>9960388.113035493</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -19236,7 +19236,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>2174062.050284707</v>
+        <v>2174062.050284708</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -19964,7 +19964,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>2995030.327810287</v>
+        <v>2995030.327810288</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -20460,7 +20460,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>1971926.806592425</v>
+        <v>1971926.806592424</v>
       </c>
     </row>
     <row r="17" spans="1:4">
